--- a/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1944,17 +1944,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.81640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.81640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1963,26 +1963,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="93.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.90625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.89453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.34765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="56.328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="133.84765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.2890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="114.75" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="41.19921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-activitydefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -828,7 +828,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Group)</t>
+Reference(Group|4.0.1)</t>
   </si>
   <si>
     <t>Type of individual the activity definition is intended for</t>
@@ -846,7 +846,7 @@
     <t>The possible types of subjects for an activity (E.g. Patient, Practitioner, Organization, Location, etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/subject-type</t>
+    <t>http://hl7.org/fhir/ValueSet/subject-type|4.0.1</t>
   </si>
   <si>
     <t>Definition.subject</t>
@@ -1226,7 +1226,7 @@
     <t>ActivityDefinition.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
     <t>Defines roles played by participants for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-role|4.0.1</t>
   </si>
   <si>
     <t>.role.code</t>
@@ -1449,7 +1449,7 @@
     <t>ActivityDefinition.product[x]</t>
   </si>
   <si>
-    <t>Reference(Medication|Substance)
+    <t>Reference(Medication|4.0.1|Substance|4.0.1)
 CodeableConcept</t>
   </si>
   <si>
@@ -1462,7 +1462,7 @@
     <t>Code describing the type of substance or medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=CSM].role</t>
@@ -1475,7 +1475,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1525,7 +1525,7 @@
     <t>A code that identifies the anatomical location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>.targetSiteCode {for classCode=PROC, SBADM}</t>
@@ -1534,7 +1534,7 @@
     <t>ActivityDefinition.specimenRequirement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(SpecimenDefinition)
+    <t xml:space="preserve">Reference(SpecimenDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1550,7 +1550,7 @@
     <t>ActivityDefinition.observationRequirement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ObservationDefinition)
+    <t xml:space="preserve">Reference(ObservationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1575,7 +1575,7 @@
     <t>ActivityDefinition.transform</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureMap)
+    <t xml:space="preserve">canonical(StructureMap|4.0.1)
 </t>
   </si>
   <si>
